--- a/Arquivos/arquivos gerais/Product e Sprint Backlog.xlsx
+++ b/Arquivos/arquivos gerais/Product e Sprint Backlog.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9aaeaea6ef72b91c/Documentos/Repositórios de Projetos/Projeto_TechSolutions/Projeto-TechSolutions/Arquivos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kauan\Desktop\Repositorio1\Projeto-TechSolutions\Projeto-TechSolutions\Arquivos\arquivos gerais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4097" documentId="8_{A18475A0-CC0B-4C0F-A858-D681464BEF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD183ED4-1E31-485F-AABD-5A7BB4C68C22}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="511" xr2:uid="{CF0E2B86-90F2-4F48-8623-DE82AABC8440}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="511" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
     <sheet name="SPRINT BACKLOG" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="181">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -207,9 +206,6 @@
     <t>Botão Adicionar</t>
   </si>
   <si>
-    <t>Icone de (+) que redireciona para a tela de cadastro de armazem ou funcionário dependendo da tela que estiver.</t>
-  </si>
-  <si>
     <t>Tela Cadastro de Armazem</t>
   </si>
   <si>
@@ -228,24 +224,12 @@
     <t>Icone de lixeira que deleta o registro do armazem ou do funcionário no banco.</t>
   </si>
   <si>
-    <t>Botão de Alterar</t>
-  </si>
-  <si>
-    <t>Icone de lápis que redireciona para a tela com informações do armazem ou do funcionário para atualizar.</t>
-  </si>
-  <si>
     <t>Tela de Edição</t>
   </si>
   <si>
     <t>A tela deve conter um formulário com as mesmas informações inseridas no cadastro do armazem ou funcionário, com os campos habilitados para modificações e botão Confirmar Alterações.</t>
   </si>
   <si>
-    <t>Botão Confirmar Alterações</t>
-  </si>
-  <si>
-    <t>Atualiza as informações do armazem ou do funcionário no banco de dados.</t>
-  </si>
-  <si>
     <t>Tela Funcionários</t>
   </si>
   <si>
@@ -258,12 +242,6 @@
     <t>A tela de cadastro de Funcionário deve conter um formulário com: Nome, Sobrenome, Cargo e Botão Cadastrar.</t>
   </si>
   <si>
-    <t>Sistema hospedado na nuvem</t>
-  </si>
-  <si>
-    <t>Sistema local hospedado em servidor em nuvem</t>
-  </si>
-  <si>
     <t>Atividade</t>
   </si>
   <si>
@@ -598,12 +576,15 @@
   </si>
   <si>
     <t>A tela Dashboard deve conter gráfico em linhas com variações da umidade e do horário de cada armazem, e um gráfico em pizza apresentando a quantidade de alertas em vermelho, laranja e amarelo.  Desenvolvimento da Tela da Dashboard em HTML e CSS</t>
+  </si>
+  <si>
+    <t>Icone de (+) que redireciona para a tela de cadastro de  funcionário dependendo da tela que estiver.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -840,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,6 +891,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,8 +921,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,7 +960,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -991,7 +991,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1026,7 +1025,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1061,7 +1059,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1096,7 +1093,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1131,7 +1127,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1166,7 +1161,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1199,7 +1193,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1248,7 +1241,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1267,7 +1259,6 @@
         <sz val="14"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1302,7 +1293,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1330,7 +1320,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -1362,7 +1351,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1393,7 +1381,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1428,7 +1415,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1459,7 +1445,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1494,7 +1479,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1525,7 +1509,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1560,7 +1543,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1591,7 +1573,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1626,7 +1607,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1657,7 +1637,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1692,7 +1671,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1721,7 +1699,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1754,7 +1731,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1783,7 +1759,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1832,7 +1807,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1851,7 +1825,6 @@
         <sz val="14"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1886,34 +1859,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{01536C02-ECB7-4E71-BF86-FF906263B424}" name="Tabela7" displayName="Tabela7" ref="B5:I82" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="B5:I82" xr:uid="{01536C02-ECB7-4E71-BF86-FF906263B424}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="B5:I79" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="B5:I79"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8095F74-F3C9-46C6-AE3F-5402E3B128FA}" name="ID" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{5A5B24F7-E56D-4319-8B1E-F259853F4287}" name="REQUISITOS" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{D1C249E0-FC2C-4683-891F-176F5A05113C}" name="DESCRIÇÃO" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{2BBC7151-4068-466C-81BF-D9E8E74FE732}" name="CLASSIFICAÇÃO" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{3AAD6B39-F153-4F06-897B-6F9512A231EC}" name="TAMANHO" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{23683B2B-9F3C-47E3-8C32-34576FF37C5B}" name="TAMANHO (FIBONACCI)" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{AC59330A-CA61-4F09-B38D-3FF7E26E964C}" name="PRIORIDADE" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{70042435-8BDF-4AD8-AE3D-EFFE4696CC2E}" name="SPRINT" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="1" name="ID" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="2" name="REQUISITOS" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="4" name="DESCRIÇÃO" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="5" name="CLASSIFICAÇÃO" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="6" name="TAMANHO" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="7" name="TAMANHO (FIBONACCI)" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="8" name="PRIORIDADE" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="9" name="SPRINT" dataDxfId="12" totalsRowDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2BFEC53F-8A94-4952-8AA0-66C7AB7EF8BC}" name="Tabela711" displayName="Tabela711" ref="B5:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="B5:I13" xr:uid="{01536C02-ECB7-4E71-BF86-FF906263B424}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela711" displayName="Tabela711" ref="B5:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B5:I13"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F5BD50BB-C502-4FDC-A2E7-1C586F4B80F9}" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{90647E17-B8EF-4A44-A719-F0D0D44BA0CC}" name="REQUISITOS" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{07610823-B71E-4E26-9761-A3D0ECBF4F9D}" name="DESCRIÇÃO" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{13A69559-CE22-44B1-BC2D-08550D3A5FC6}" name="CLASSIFICAÇÃO" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{9C9161EA-AF14-41DF-85F4-32EC8183A37A}" name="TAMANHO" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{081927D7-EC70-43CF-9FF8-2FA3794ECA78}" name="TAMANHO (FIBONACCI)" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{B6568852-46B8-42D1-A2C4-F7FCDDD8BC05}" name="PRIORIDADE" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D61D9CE0-6AFD-49DF-B904-CC2FC6B5EA57}" name="SPRINT" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" name="REQUISITOS" dataDxfId="6"/>
+    <tableColumn id="4" name="DESCRIÇÃO" dataDxfId="5"/>
+    <tableColumn id="5" name="CLASSIFICAÇÃO" dataDxfId="4"/>
+    <tableColumn id="6" name="TAMANHO" dataDxfId="3"/>
+    <tableColumn id="7" name="TAMANHO (FIBONACCI)" dataDxfId="2"/>
+    <tableColumn id="8" name="PRIORIDADE" dataDxfId="1"/>
+    <tableColumn id="9" name="SPRINT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2215,61 +2188,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3EF259-11A2-4B81-A8A6-E8884C544017}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:L82"/>
+  <dimension ref="A2:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView topLeftCell="A69" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="A12" sqref="A10:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="71.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:12" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
@@ -2295,7 +2268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>9</v>
       </c>
@@ -2321,7 +2294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="8" t="s">
         <v>9</v>
@@ -2348,7 +2321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -2374,10 +2347,10 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="115.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -2403,7 +2376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2432,7 +2405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2458,7 +2431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2484,7 +2457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
@@ -2510,7 +2483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -2536,7 +2509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
@@ -2562,7 +2535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -2588,7 +2561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -2614,7 +2587,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
@@ -2622,7 +2595,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>46</v>
@@ -2640,15 +2613,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
@@ -2666,7 +2639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
@@ -2692,7 +2665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2718,7 +2691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2744,7 +2717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
@@ -2752,7 +2725,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>12</v>
@@ -2770,15 +2743,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
@@ -2796,15 +2769,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>12</v>
@@ -2822,15 +2795,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
@@ -2848,41 +2821,41 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G27" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
@@ -2900,145 +2873,148 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="24" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="2">
-        <v>5</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="24" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <v>3</v>
       </c>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
-      <c r="I33" s="12" t="s">
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
@@ -3053,21 +3029,18 @@
         <v>1</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
@@ -3082,18 +3055,18 @@
         <v>1</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
@@ -3108,18 +3081,18 @@
         <v>1</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
@@ -3134,18 +3107,18 @@
         <v>1</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
@@ -3160,18 +3133,18 @@
         <v>1</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
@@ -3186,18 +3159,18 @@
         <v>1</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
@@ -3212,24 +3185,24 @@
         <v>1</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G41" s="2">
         <v>3</v>
@@ -3238,18 +3211,18 @@
         <v>1</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>12</v>
@@ -3264,18 +3237,18 @@
         <v>1</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
@@ -3290,24 +3263,24 @@
         <v>1</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
@@ -3319,15 +3292,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" s="19" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -3345,15 +3318,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
@@ -3371,21 +3344,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G47" s="2">
         <v>3</v>
@@ -3394,12 +3367,12 @@
         <v>1</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" s="19" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>103</v>
@@ -3417,15 +3390,15 @@
         <v>3</v>
       </c>
       <c r="H48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>105</v>
@@ -3437,21 +3410,21 @@
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G49" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>107</v>
@@ -3459,11 +3432,11 @@
       <c r="D50" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G50" s="2">
         <v>3</v>
@@ -3472,43 +3445,43 @@
         <v>1</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2">
         <v>13</v>
       </c>
-      <c r="G51" s="2">
-        <v>3</v>
-      </c>
       <c r="H51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -3524,12 +3497,12 @@
         <v>1</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>114</v>
@@ -3541,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="G53" s="2">
         <v>3</v>
@@ -3550,12 +3523,12 @@
         <v>1</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>116</v>
@@ -3567,59 +3540,59 @@
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" s="2">
+        <v>3</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="2">
+      <c r="D55" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="2">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="G55" s="2">
+        <v>3</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="2">
-        <v>5</v>
-      </c>
-      <c r="H55" s="2">
-        <v>1</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G56" s="2">
         <v>3</v>
@@ -3628,24 +3601,24 @@
         <v>1</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G57" s="2">
         <v>3</v>
@@ -3653,71 +3626,71 @@
       <c r="H57" s="2">
         <v>1</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="2">
+        <v>8</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="2">
-        <v>3</v>
-      </c>
-      <c r="H58" s="2">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="E59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="2">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="2">
-        <v>3</v>
-      </c>
-      <c r="H59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
@@ -3731,21 +3704,21 @@
       <c r="H60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="4" t="s">
-        <v>75</v>
+      <c r="I60" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F61" s="2" t="s">
@@ -3757,48 +3730,48 @@
       <c r="H61" s="2">
         <v>2</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
-        <v>75</v>
+      <c r="I61" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="2">
+        <v>5</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G62" s="2">
-        <v>8</v>
-      </c>
-      <c r="H62" s="2">
-        <v>1</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>13</v>
@@ -3807,76 +3780,76 @@
         <v>3</v>
       </c>
       <c r="H63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="2">
+        <v>5</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="D65" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G65" s="2">
         <v>8</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H65" s="2">
         <v>2</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" s="7" t="s">
+      <c r="I65" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="2">
-        <v>5</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>13</v>
@@ -3885,41 +3858,41 @@
         <v>3</v>
       </c>
       <c r="H66" s="2">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" s="2">
+        <v>8</v>
+      </c>
+      <c r="H67" s="2">
         <v>2</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="I67" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="2">
-        <v>5</v>
-      </c>
-      <c r="H67" s="2">
-        <v>1</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="2" t="s">
-        <v>75</v>
+    </row>
+    <row r="68" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>143</v>
@@ -3928,59 +3901,59 @@
         <v>144</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G68" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H68" s="2">
         <v>2</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I68" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="7" t="s">
         <v>146</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G69" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H69" s="2">
         <v>1</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="D70" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E70" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>44</v>
@@ -3989,15 +3962,15 @@
         <v>8</v>
       </c>
       <c r="H70" s="2">
-        <v>2</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>150</v>
@@ -4006,7 +3979,7 @@
         <v>151</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>20</v>
@@ -4017,74 +3990,74 @@
       <c r="H71" s="2">
         <v>2</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I71" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>153</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G72" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
-      </c>
-      <c r="I72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="E73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" s="5">
+        <v>8</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G73" s="2">
-        <v>8</v>
-      </c>
-      <c r="H73" s="2">
-        <v>1</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>20</v>
@@ -4093,217 +4066,139 @@
         <v>5</v>
       </c>
       <c r="H74" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="E75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="2">
+        <v>5</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G75" s="2">
-        <v>8</v>
-      </c>
-      <c r="H75" s="2">
-        <v>2</v>
-      </c>
-      <c r="I75" s="2" t="s">
+      <c r="D76" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="2">
+        <v>5</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D76" s="6" t="s">
+    <row r="77" spans="2:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G76" s="5">
-        <v>8</v>
-      </c>
-      <c r="H76" s="2">
-        <v>1</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G77" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H77" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="E78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" s="2">
+        <v>8</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="2">
-        <v>5</v>
-      </c>
-      <c r="H78" s="2">
-        <v>1</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" s="2">
-        <v>5</v>
-      </c>
-      <c r="H79" s="2">
-        <v>1</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="E79" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F79" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G79" s="10">
         <v>8</v>
       </c>
-      <c r="H80" s="2">
-        <v>1</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81" s="2">
-        <v>8</v>
-      </c>
-      <c r="H81" s="2">
-        <v>1</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G82" s="10">
-        <v>8</v>
-      </c>
-      <c r="H82" s="10">
-        <v>1</v>
-      </c>
-      <c r="I82" s="13" t="s">
+      <c r="H79" s="10">
+        <v>1</v>
+      </c>
+      <c r="I79" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4321,61 +4216,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF187038-A3DC-4258-8D0B-2ED5EB25B5C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="71.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
@@ -4401,7 +4296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -4409,7 +4304,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>46</v>
@@ -4427,16 +4322,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>46</v>
@@ -4454,7 +4349,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -4480,15 +4375,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>46</v>
@@ -4506,15 +4401,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>46</v>
@@ -4535,15 +4430,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>46</v>
@@ -4561,15 +4456,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>46</v>
@@ -4587,18 +4482,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>44</v>
@@ -4613,8 +4508,555 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E14" s="19"/>
+    <row r="14" spans="1:10" s="35" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="39">
+        <v>8</v>
+      </c>
+      <c r="H14" s="39">
+        <v>1</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="2">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="23">
+        <v>5</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="23">
+        <v>5</v>
+      </c>
+      <c r="H18" s="23">
+        <v>2</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="2:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="2">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="42">
+        <v>8</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="23">
+        <v>5</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="23">
+        <v>8</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="2">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="23">
+        <v>5</v>
+      </c>
+      <c r="H26" s="23">
+        <v>2</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="23">
+        <v>3</v>
+      </c>
+      <c r="H28" s="23">
+        <v>1</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="23">
+        <v>8</v>
+      </c>
+      <c r="H30" s="23">
+        <v>1</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="2">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="23">
+        <v>5</v>
+      </c>
+      <c r="H32" s="23">
+        <v>1</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="23">
+        <v>5</v>
+      </c>
+      <c r="H34" s="23">
+        <v>1</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Arquivos/arquivos gerais/Product e Sprint Backlog.xlsx
+++ b/Arquivos/arquivos gerais/Product e Sprint Backlog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kauan\Desktop\Repositorio1\Projeto-TechSolutions\Projeto-TechSolutions\Arquivos\arquivos gerais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9aaeaea6ef72b91c/Documentos/Repositórios de Projetos/Projeto_TechSolutions/Projeto-TechSolutions/Arquivos/arquivos gerais/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_A064C130380AE84D76FD6A7040524DEDB663275D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3D0AA6B-3E4F-4D77-ADA4-C12DDF058F39}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="511" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="511" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -20,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="154">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -101,12 +91,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>Tela Cadastro Empresa</t>
-  </si>
-  <si>
-    <t>A tela de Cadastro deve conter um formulário com: CNPJ, Nome da Empresa, Telefone, E-mail, Senha, CEP, Lagradouro, Numero, Complemento, Bairro, Cidade, Estado, Botão Cadastra-se e opção logo abaixo do Cadastro de" Já tem uma conta?" (Redireciona para a tela de Login).</t>
-  </si>
-  <si>
     <t>Botão cadastrar-se</t>
   </si>
   <si>
@@ -122,33 +106,18 @@
     <t>Tela Login</t>
   </si>
   <si>
-    <t>O Protótipo da tela de Login deve conter um formulário com: E-mail, senha, Botão Entrar e opção logo abaixo do Login de "Esqueceu sua senha?" (Redireciona para a tela de Redefinição de Senha).</t>
-  </si>
-  <si>
     <t>Botão entrar</t>
   </si>
   <si>
     <t>Validação de e-mail e senha por checagem no banco de dados. Após validação, permitir acesso do usuário ao sistema.</t>
   </si>
   <si>
-    <t>Tela Redefinição de Senha</t>
-  </si>
-  <si>
-    <t>A tela de Redefinição de Senha deve solicitar o e-mail para o qual deseja redefinir a senha e um Botão Redefinir Senha.</t>
-  </si>
-  <si>
-    <t>Desejavel</t>
-  </si>
-  <si>
     <t>SPRINT 2C</t>
   </si>
   <si>
     <t>Tela Fale Conosco</t>
   </si>
   <si>
-    <t>A tela Fale Conosco deve conter uma imagem, logo abaixo um formulário de título "Fale Conosco" com: Assunto, Descrição, E-mail e Botão Enviar.</t>
-  </si>
-  <si>
     <t>Tela Sobre Nós</t>
   </si>
   <si>
@@ -182,410 +151,350 @@
     <t>Retorno de dados para Dashboard</t>
   </si>
   <si>
+    <t>SPRINT 3B</t>
+  </si>
+  <si>
+    <t>Alertas</t>
+  </si>
+  <si>
+    <t>Emissão de alertas na interface quando a umidade ultrapassar os limites definidos.</t>
+  </si>
+  <si>
+    <t>Tela do Armazem</t>
+  </si>
+  <si>
+    <t>SPRINT 2D</t>
+  </si>
+  <si>
+    <t>Botão Adicionar</t>
+  </si>
+  <si>
+    <t>Atividade</t>
+  </si>
+  <si>
+    <t>Protótipo do Site Institucional</t>
+  </si>
+  <si>
+    <t>Modelo inicial das Telas do site e do sistema</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>Protótipo do Cabeçalho do Site</t>
+  </si>
+  <si>
+    <t>O Protótipo do Menu de navegação na horizontal deve ter fundo claro conter um conjunto de links na cor marrom: Logo da Empresa, Home, Cadastro, Login, Fale Conosco, Sobre Nós, Simulador. O link deve ficar com fundo marrom e letra branca conforme estiver na página selecionada.</t>
+  </si>
+  <si>
+    <t>Protótipo do Rodapé do Site</t>
+  </si>
+  <si>
+    <t>O Protótipo do Rodapé  deve ter backgound escuro conter um conjunto de links na cor branca: Redes Sociais (Icone Instagram , Icone WhathsApp, Icone GitHub) Home, Fale Conosco,  Sobre Nós,  2023 All rights reserved TechSolutions.</t>
+  </si>
+  <si>
+    <t>Protótipo da Tela Inicial</t>
+  </si>
+  <si>
+    <t>Protótipo da Tela de Cadastro</t>
+  </si>
+  <si>
+    <t>Protótipo da Tela de Login</t>
+  </si>
+  <si>
+    <t>Protótipo da  Tela de Fale Conosco</t>
+  </si>
+  <si>
+    <t>Protótipo da  Tela de Sobre Nós</t>
+  </si>
+  <si>
+    <t>O Protótipo da tela Sobre Nós deve ter um título "Nossa Equipe" , conter informações da equipe e uma imagem da mesma.</t>
+  </si>
+  <si>
+    <t>Protótipo da Tela do Simulador Financeiro</t>
+  </si>
+  <si>
+    <t>O Protótipo da tela do Simulador Financeiro deve conter um formulário com: Nome da empresa, Valor por saco de café, quantidade de sacos, Umidade Média e Botão Verificar.</t>
+  </si>
+  <si>
+    <t>Protótipo do Cabeçalho do Sistema</t>
+  </si>
+  <si>
+    <t>Protótipo da Tela da Dashboard</t>
+  </si>
+  <si>
+    <t>Protótipo da Tela de Armazem</t>
+  </si>
+  <si>
+    <t>O Protótipo da tela de Armazem deve apresentar os armazens cadastrados no sistema (Número do Armazem, Área e Localidade) e conter os Botões para Adicionar, Excluir e Alterar Armazens do sistema.</t>
+  </si>
+  <si>
+    <t>Projeto criado e configurado no GitHub</t>
+  </si>
+  <si>
+    <t>Repositório do Projeto criado na plataforma do GitHub com os integrantes do grupo inclusos nele.</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>Diagrama de Visão de Négocio</t>
+  </si>
+  <si>
+    <t>Diagrama que representa como funcioná a solução (foco no negócio)</t>
+  </si>
+  <si>
+    <t>Requisitos Populados na Ferramenta</t>
+  </si>
+  <si>
+    <t>Requisitos/Atividades do Projeto listados no Trello</t>
+  </si>
+  <si>
+    <t>Ferramenta de Gestão de Projetos Funcionando</t>
+  </si>
+  <si>
+    <t>Uitilização do Trello no gerenciamento das tarefas</t>
+  </si>
+  <si>
+    <t>Documentação Inicial do Projeto</t>
+  </si>
+  <si>
+    <t>A documentação deve conter: Capa, Contexto, Justificativa, Objetivo e Escopo</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Tabelas criadas no MySQL - Protótipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo inicial das tabelas que serão utilizadas </t>
+  </si>
+  <si>
+    <t>Script de inserção de registros</t>
+  </si>
+  <si>
+    <t>Criação do código para inserção de registros nas tabelas</t>
+  </si>
+  <si>
+    <t>Script de consulta de dados</t>
+  </si>
+  <si>
+    <t>Criação do código para consulta de dados nas tabelas</t>
+  </si>
+  <si>
+    <t>Ligar arduino</t>
+  </si>
+  <si>
+    <t>Montar placa de Arduíno para iniciar seu funcionamento</t>
+  </si>
+  <si>
+    <t>Rodar Código Arduíno</t>
+  </si>
+  <si>
+    <t>Enviar código para o Arduíno para inicio da coleta de dados.</t>
+  </si>
+  <si>
+    <t>Projeto atualizado no GitHub/ Documentação do Projeto Atualizada</t>
+  </si>
+  <si>
+    <t>Planilha de Riscos do Projeto</t>
+  </si>
+  <si>
+    <t>Planilha que descreve os riscos que podem acontecer e as ações a serem tomadas se os riscos ocorrerem.</t>
+  </si>
+  <si>
+    <t>Site Estático Institucional</t>
+  </si>
+  <si>
+    <t>Desenvolvimento das Telas do Site Institucional em HTML E CSS</t>
+  </si>
+  <si>
+    <t>Site Estático Cadastro e Login</t>
+  </si>
+  <si>
+    <t>Desenvolvimento das Telas de Cadastro e Login em HTML E CSS</t>
+  </si>
+  <si>
+    <t>Diagrama de Solução</t>
+  </si>
+  <si>
+    <t>Atividades organizadas na ferramenta de Gestão</t>
+  </si>
+  <si>
+    <t>Atividades do Projeto organizadas no Trello</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica do Projeto v1</t>
+  </si>
+  <si>
+    <t>Primeira versão que descreve como os dados serão armazenados no banco e também os relacionamentos entre as tabelas.</t>
+  </si>
+  <si>
+    <t>Script de criação do Banco</t>
+  </si>
+  <si>
+    <t>Script do banco com as chaves estrangeiras nas devidas tabelas</t>
+  </si>
+  <si>
+    <t>Teste com Sensor do Projeto + Gráficos</t>
+  </si>
+  <si>
+    <t>Testes de coleta de dados com os sensores que serão utilizados e representação em gráfico.</t>
+  </si>
+  <si>
+    <t>Especificação do Analytics / Métricas</t>
+  </si>
+  <si>
+    <t>Especificação das métricas utilizadas.</t>
+  </si>
+  <si>
+    <t>Manual de Instalação</t>
+  </si>
+  <si>
+    <t>Manual de instalação do Projeto</t>
+  </si>
+  <si>
+    <t>SPRINT 3C</t>
+  </si>
+  <si>
+    <t>Doc. do Projeto Atualizada</t>
+  </si>
+  <si>
+    <t>Atualização da Documentação do Projeto</t>
+  </si>
+  <si>
+    <t>PPT da Apresentação</t>
+  </si>
+  <si>
+    <t>PowerPoint da apresentação do Projeto</t>
+  </si>
+  <si>
+    <t>SPRINT 3D</t>
+  </si>
+  <si>
+    <t>Planilha de Homologação do Projeto</t>
+  </si>
+  <si>
+    <t>Planilha de confirmação ou aprovação de uma determinação cedida por uma autoridade.</t>
+  </si>
+  <si>
+    <t>Prévia (Demonstração da Solução + Apresentação)</t>
+  </si>
+  <si>
+    <t>Demonstração da solução proposta e da apresentação do projeto.</t>
+  </si>
+  <si>
+    <t>Fluxograma de Suporte</t>
+  </si>
+  <si>
+    <t>Fluxograma que representa o suporte do Projeto.</t>
+  </si>
+  <si>
+    <t>Ferramenta de Help Desk</t>
+  </si>
+  <si>
+    <t>Ferramenta de serviço ao cliente para suporte e resolução de problemas técnicos.</t>
+  </si>
+  <si>
+    <t>Documento de Mudança</t>
+  </si>
+  <si>
+    <t>Documento utilizado para comunicar, documentar e detalhar as mudanças ocorridas durante a execução do projeto.</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica do Projeto v2</t>
+  </si>
+  <si>
+    <t>Segunda versão que descreve como os dados serão armazenados no banco e também os relacionamentos entre as tabelas.</t>
+  </si>
+  <si>
+    <t>Script SQL Server</t>
+  </si>
+  <si>
+    <t>Criação do código do Banco de dados no SGBD SQL Server da Microsoft.</t>
+  </si>
+  <si>
+    <t>Teste integrado do Analytics</t>
+  </si>
+  <si>
+    <t>Teste do site integrado ao Analytics que coletará os dados do sensor para criar gráficos sobre a umidade do local.</t>
+  </si>
+  <si>
+    <t>Teste integrado da Solução de IoT</t>
+  </si>
+  <si>
+    <t>Teste do sistema com sensores e APIs para troca ou tranferencia de informações.</t>
+  </si>
+  <si>
+    <t>Teste integrado (Arduino + BD)</t>
+  </si>
+  <si>
+    <t>Teste de coleta de dados atráves dos sensores conectados ao arduino e armazenamento dos dados no banco de dados.</t>
+  </si>
+  <si>
+    <t>SPRINT BACKLOG</t>
+  </si>
+  <si>
+    <t>Site Estático da Dashboard</t>
+  </si>
+  <si>
+    <t>Atualização de arquivos e membros no repositório do GitHub, e alterações da Documentação.</t>
+  </si>
+  <si>
+    <t>Diagrama que representa a solução proposta.</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Icone de (+) que redireciona para a tela de cadastro de  funcionário dependendo da tela que estiver.</t>
+  </si>
+  <si>
+    <t>A tela de Cadastro deve conter um formulário com: CNPJ, Nome da Empresa, Telefone, E-mail, Senha, Botão Cadastra-se e opção logo abaixo do Cadastro de" Já tem uma conta?" (Redireciona para a tela de Login).</t>
+  </si>
+  <si>
+    <t>O Protótipo da tela de Login deve conter um formulário com: E-mail, senha, Botão Entrar e opção logo abaixo do Login de "Esqueceu sua senha?" (Redireciona para a tela de Fale Conosco).</t>
+  </si>
+  <si>
+    <t>A tela Fale Conosco deve conter uma imagem a direita, logo ao lado um formulário de título "Fale Conosco" com: Nome, E-mail e Botão Enviar.</t>
+  </si>
+  <si>
+    <t>Menu de navegação na vertical deve conter um conjunto de links e ícones: Icone de usuário com frase "Bem-vindo", logo abaixo Dashboard, Armazém e Suporte. O link deve ficar em negrito conforme estiver na página selecionada.</t>
+  </si>
+  <si>
+    <t>A tela Dashboard deve conter gráfico de barras com variações da umidade de cada sensor e horário, e dois gráficos de pizza sendo um de Alertas Gerais e Alertas foras do Ideal.  Desenvolvimento da Tela da Dashboard em HTML e CSS.</t>
+  </si>
+  <si>
+    <t>A tela de Armazem deve apresentar os armazens cadastrados no sistema (Número do Armazem, Área, QtdSetores e Localidade).</t>
+  </si>
+  <si>
+    <t>O Protótipo da tela de Cadastro deve conter um formulário com: CNPJ, Nome da Empresa, Telefone, E-mail, Senha, Botão Cadastra-se e opção logo abaixo do Cadastro de" Já tem uma conta?" (Redireciona para a tela de Login).</t>
+  </si>
+  <si>
+    <t>Tela de Suporte</t>
+  </si>
+  <si>
+    <t>A tela de Suporte deve conter um formulário para abrir um novo chamado, que será enviado para nossa central de serviços. O formulário deve ser integrado no site através da ferramenta de suporte Pipefy.</t>
+  </si>
+  <si>
+    <t>Protótipo da Tela de Suporte</t>
+  </si>
+  <si>
+    <t>SPRINT2C</t>
+  </si>
+  <si>
+    <t>Tela de Cadastro</t>
+  </si>
+  <si>
     <t>O banco de dados deve armazenar e retornar dados do Arduíno a cada 10 minutos.</t>
-  </si>
-  <si>
-    <t>SPRINT 3B</t>
-  </si>
-  <si>
-    <t>Alertas</t>
-  </si>
-  <si>
-    <t>Emissão de alertas na interface quando a umidade ultrapassar os limites definidos.</t>
-  </si>
-  <si>
-    <t>Tela do Armazem</t>
-  </si>
-  <si>
-    <t>A tela de Armazem deve apresentar os armazens cadastrados no sistema (Número do Armazem, Área e Localidade) e conter os Botões para Adicionar, Excluir e Alterar Armazens do sistema.</t>
-  </si>
-  <si>
-    <t>SPRINT 2D</t>
-  </si>
-  <si>
-    <t>Botão Adicionar</t>
-  </si>
-  <si>
-    <t>Tela Cadastro de Armazem</t>
-  </si>
-  <si>
-    <t>A tela de cadastro de Armazem deve conter um formulário com: Número do Armazem, Localidade , Área e Botão Cadastrar.</t>
-  </si>
-  <si>
-    <t>Botão Cadastrar</t>
-  </si>
-  <si>
-    <t>Registrar as informações do armazem ou do funcionário no banco.</t>
-  </si>
-  <si>
-    <t>Botão Excluir</t>
-  </si>
-  <si>
-    <t>Icone de lixeira que deleta o registro do armazem ou do funcionário no banco.</t>
-  </si>
-  <si>
-    <t>Tela de Edição</t>
-  </si>
-  <si>
-    <t>A tela deve conter um formulário com as mesmas informações inseridas no cadastro do armazem ou funcionário, com os campos habilitados para modificações e botão Confirmar Alterações.</t>
-  </si>
-  <si>
-    <t>Tela Funcionários</t>
-  </si>
-  <si>
-    <t>A tela de Funcionários deve apresentar os funcionarios cadastrados no sistema (Nome, Sobrenome, Cargo e E-mail) e conter os Botões para Adicionar, Excluir e Alterar Funcionários do sistema.</t>
-  </si>
-  <si>
-    <t>Tela Cadastro de Funcionários</t>
-  </si>
-  <si>
-    <t>A tela de cadastro de Funcionário deve conter um formulário com: Nome, Sobrenome, Cargo e Botão Cadastrar.</t>
-  </si>
-  <si>
-    <t>Atividade</t>
-  </si>
-  <si>
-    <t>Protótipo do Site Institucional</t>
-  </si>
-  <si>
-    <t>Modelo inicial das Telas do site e do sistema</t>
-  </si>
-  <si>
-    <t>SPRINT 1</t>
-  </si>
-  <si>
-    <t>Protótipo do Cabeçalho do Site</t>
-  </si>
-  <si>
-    <t>O Protótipo do Menu de navegação na horizontal deve ter fundo claro conter um conjunto de links na cor marrom: Logo da Empresa, Home, Cadastro, Login, Fale Conosco, Sobre Nós, Simulador. O link deve ficar com fundo marrom e letra branca conforme estiver na página selecionada.</t>
-  </si>
-  <si>
-    <t>Protótipo do Rodapé do Site</t>
-  </si>
-  <si>
-    <t>O Protótipo do Rodapé  deve ter backgound escuro conter um conjunto de links na cor branca: Redes Sociais (Icone Instagram , Icone WhathsApp, Icone GitHub) Home, Fale Conosco,  Sobre Nós,  2023 All rights reserved TechSolutions.</t>
-  </si>
-  <si>
-    <t>Protótipo da Tela Inicial</t>
-  </si>
-  <si>
-    <t>O Protótipo da tela Inicial deve conter: Imagem principal com a frase ''Preservando a qualidade grão, por grão", abaixo informações da Sobre a Empresa, Nossos Serviços, Nosso Produto, Missão, Visão e Valores</t>
-  </si>
-  <si>
-    <t>Protótipo da Tela de Cadastro</t>
-  </si>
-  <si>
-    <t>O Protótipo da tela de Cadastro deve conter um formulário com: CNPJ, Nome da Empresa, Telefone, E-mail, Senha, CEP, Lagradouro, Numero, Complemento, Bairro, Cidade, Estado, Botão Cadastra-se e opção logo abaixo do Cadastro de" Já tem uma conta?" (Redireciona para a tela de Login).</t>
-  </si>
-  <si>
-    <t>Protótipo da Tela de Login</t>
-  </si>
-  <si>
-    <t>Protótipo da Tela de Redefinição de Senha</t>
-  </si>
-  <si>
-    <t>O Protótipo da tela de Redefinição de Senha deve solicitar o e-mail para o qual deseja redefinir a senha e um Botão Redefinir Senha.</t>
-  </si>
-  <si>
-    <t>Protótipo da  Tela de Fale Conosco</t>
-  </si>
-  <si>
-    <t>O Protótipo da tela Fale Conosco deve conter uma imagem, logo abaixo um formulário de título "Fale Conosco" com: Assunto, Descrição, E-mail e Botão Enviar.</t>
-  </si>
-  <si>
-    <t>Protótipo da  Tela de Sobre Nós</t>
-  </si>
-  <si>
-    <t>O Protótipo da tela Sobre Nós deve ter um título "Nossa Equipe" , conter informações da equipe e uma imagem da mesma.</t>
-  </si>
-  <si>
-    <t>Protótipo da Tela do Simulador Financeiro</t>
-  </si>
-  <si>
-    <t>O Protótipo da tela do Simulador Financeiro deve conter um formulário com: Nome da empresa, Valor por saco de café, quantidade de sacos, Umidade Média e Botão Verificar.</t>
-  </si>
-  <si>
-    <t>Protótipo do Cabeçalho do Sistema</t>
-  </si>
-  <si>
-    <t>Protótipo da Tela da Dashboard</t>
-  </si>
-  <si>
-    <t>Protótipo da Tela de Armazem</t>
-  </si>
-  <si>
-    <t>O Protótipo da tela de Armazem deve apresentar os armazens cadastrados no sistema (Número do Armazem, Área e Localidade) e conter os Botões para Adicionar, Excluir e Alterar Armazens do sistema.</t>
-  </si>
-  <si>
-    <t>Protótipo da Tela de Cadastro de Armazem</t>
-  </si>
-  <si>
-    <t>Protótipo da Tela de Edição</t>
-  </si>
-  <si>
-    <t>O Protótipo da tela deve conter um formulário com as mesmas informações inseridas no cadastro do armazem ou  funcionário, com os campos habilitados para modificações e Botão Confirmar Alterações.</t>
-  </si>
-  <si>
-    <t>Protótipo da Tela de Funcionários</t>
-  </si>
-  <si>
-    <t>O Protótipo da tela de Funcionários deve apresentar os funcionarios cadastrados no sistema (Nome, Sobrenome, Cargo e E-mail) e conter os Botões para Adicionar, Excluir e Alterar Funcionários do sistema.</t>
-  </si>
-  <si>
-    <t>Protótipo da Tela de Cadastro de Funcionário</t>
-  </si>
-  <si>
-    <t>O Protótipo da tela de cadastro de Funcionário deve conter um formulário com: Nome, Sobrenome, Cargo e Botão Cadastrar.</t>
-  </si>
-  <si>
-    <t>Projeto criado e configurado no GitHub</t>
-  </si>
-  <si>
-    <t>Repositório do Projeto criado na plataforma do GitHub com os integrantes do grupo inclusos nele.</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>Diagrama de Visão de Négocio</t>
-  </si>
-  <si>
-    <t>Diagrama que representa como funcioná a solução (foco no negócio)</t>
-  </si>
-  <si>
-    <t>Requisitos Populados na Ferramenta</t>
-  </si>
-  <si>
-    <t>Requisitos/Atividades do Projeto listados no Trello</t>
-  </si>
-  <si>
-    <t>Ferramenta de Gestão de Projetos Funcionando</t>
-  </si>
-  <si>
-    <t>Uitilização do Trello no gerenciamento das tarefas</t>
-  </si>
-  <si>
-    <t>Documentação Inicial do Projeto</t>
-  </si>
-  <si>
-    <t>A documentação deve conter: Capa, Contexto, Justificativa, Objetivo e Escopo</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Tabelas criadas no MySQL - Protótipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelo inicial das tabelas que serão utilizadas </t>
-  </si>
-  <si>
-    <t>Script de inserção de registros</t>
-  </si>
-  <si>
-    <t>Criação do código para inserção de registros nas tabelas</t>
-  </si>
-  <si>
-    <t>Script de consulta de dados</t>
-  </si>
-  <si>
-    <t>Criação do código para consulta de dados nas tabelas</t>
-  </si>
-  <si>
-    <t>Ligar arduino</t>
-  </si>
-  <si>
-    <t>Montar placa de Arduíno para iniciar seu funcionamento</t>
-  </si>
-  <si>
-    <t>Rodar Código Arduíno</t>
-  </si>
-  <si>
-    <t>Enviar código para o Arduíno para inicio da coleta de dados.</t>
-  </si>
-  <si>
-    <t>Projeto atualizado no GitHub/ Documentação do Projeto Atualizada</t>
-  </si>
-  <si>
-    <t>Planilha de Riscos do Projeto</t>
-  </si>
-  <si>
-    <t>Planilha que descreve os riscos que podem acontecer e as ações a serem tomadas se os riscos ocorrerem.</t>
-  </si>
-  <si>
-    <t>Site Estático Institucional</t>
-  </si>
-  <si>
-    <t>Desenvolvimento das Telas do Site Institucional em HTML E CSS</t>
-  </si>
-  <si>
-    <t>Site Estático Cadastro e Login</t>
-  </si>
-  <si>
-    <t>Desenvolvimento das Telas de Cadastro e Login em HTML E CSS</t>
-  </si>
-  <si>
-    <t>Diagrama de Solução</t>
-  </si>
-  <si>
-    <t>Atividades organizadas na ferramenta de Gestão</t>
-  </si>
-  <si>
-    <t>Atividades do Projeto organizadas no Trello</t>
-  </si>
-  <si>
-    <t>Modelagem Lógica do Projeto v1</t>
-  </si>
-  <si>
-    <t>Primeira versão que descreve como os dados serão armazenados no banco e também os relacionamentos entre as tabelas.</t>
-  </si>
-  <si>
-    <t>Script de criação do Banco</t>
-  </si>
-  <si>
-    <t>Script do banco com as chaves estrangeiras nas devidas tabelas</t>
-  </si>
-  <si>
-    <t>Teste com Sensor do Projeto + Gráficos</t>
-  </si>
-  <si>
-    <t>Testes de coleta de dados com os sensores que serão utilizados e representação em gráfico.</t>
-  </si>
-  <si>
-    <t>Especificação do Analytics / Métricas</t>
-  </si>
-  <si>
-    <t>Especificação das métricas utilizadas.</t>
-  </si>
-  <si>
-    <t>Manual de Instalação</t>
-  </si>
-  <si>
-    <t>Manual de instalação do Projeto</t>
-  </si>
-  <si>
-    <t>SPRINT 3C</t>
-  </si>
-  <si>
-    <t>Doc. do Projeto Atualizada</t>
-  </si>
-  <si>
-    <t>Atualização da Documentação do Projeto</t>
-  </si>
-  <si>
-    <t>PPT da Apresentação</t>
-  </si>
-  <si>
-    <t>PowerPoint da apresentação do Projeto</t>
-  </si>
-  <si>
-    <t>SPRINT 3D</t>
-  </si>
-  <si>
-    <t>Planilha de Homologação do Projeto</t>
-  </si>
-  <si>
-    <t>Planilha de confirmação ou aprovação de uma determinação cedida por uma autoridade.</t>
-  </si>
-  <si>
-    <t>Prévia (Demonstração da Solução + Apresentação)</t>
-  </si>
-  <si>
-    <t>Demonstração da solução proposta e da apresentação do projeto.</t>
-  </si>
-  <si>
-    <t>Fluxograma de Suporte</t>
-  </si>
-  <si>
-    <t>Fluxograma que representa o suporte do Projeto.</t>
-  </si>
-  <si>
-    <t>Ferramenta de Help Desk</t>
-  </si>
-  <si>
-    <t>Ferramenta de serviço ao cliente para suporte e resolução de problemas técnicos.</t>
-  </si>
-  <si>
-    <t>Documento de Mudança</t>
-  </si>
-  <si>
-    <t>Documento utilizado para comunicar, documentar e detalhar as mudanças ocorridas durante a execução do projeto.</t>
-  </si>
-  <si>
-    <t>Modelagem Lógica do Projeto v2</t>
-  </si>
-  <si>
-    <t>Segunda versão que descreve como os dados serão armazenados no banco e também os relacionamentos entre as tabelas.</t>
-  </si>
-  <si>
-    <t>Script SQL Server</t>
-  </si>
-  <si>
-    <t>Criação do código do Banco de dados no SGBD SQL Server da Microsoft.</t>
-  </si>
-  <si>
-    <t>Teste integrado do Analytics</t>
-  </si>
-  <si>
-    <t>Teste do site integrado ao Analytics que coletará os dados do sensor para criar gráficos sobre a umidade do local.</t>
-  </si>
-  <si>
-    <t>Teste integrado da Solução de IoT</t>
-  </si>
-  <si>
-    <t>Teste do sistema com sensores e APIs para troca ou tranferencia de informações.</t>
-  </si>
-  <si>
-    <t>Teste integrado (Arduino + BD)</t>
-  </si>
-  <si>
-    <t>Teste de coleta de dados atráves dos sensores conectados ao arduino e armazenamento dos dados no banco de dados.</t>
-  </si>
-  <si>
-    <t>SPRINT BACKLOG</t>
-  </si>
-  <si>
-    <t>Site Estático da Dashboard</t>
-  </si>
-  <si>
-    <t>A tela Dashboard deve conter gráfico em linhas com váriações da umidade e do horário de cada armazem, e um gráfico em pizza apresentando a quantidade de alertas em vermelho, laranja e amarelo.  Desenvolvimento da Tela da Dashboard em HTML e CSS</t>
-  </si>
-  <si>
-    <t>O Protótipo da tela Dashboard deve conter gráfico em linhas ou de colunas com váriações da umidade e do horário de cada armazem, e um gráfico em pizza apresentando a quantidade de alertas em vermelho, laranja e amarelo.</t>
-  </si>
-  <si>
-    <t>Atualização de arquivos e membros no repositório do GitHub, e alterações da Documentação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Importante</t>
-  </si>
-  <si>
-    <t>Menu de navegação na vertical deve ter conter um conjunto de links e icones: Icone de usuário com frase "Bem Vindo", logo abaixo Perfil, Dashboard, Armazém e Funcionários. O link deve ficar em negrito conforme estiver na página selecionada.</t>
-  </si>
-  <si>
-    <t>Diagrama que representa a solução proposta.</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Menu de navegação na vertical deve conter um conjunto de links e icones: Icone de usuário com frase "Bem Vindo", logo abaixo Perfil, Dashboard, Armazém e Funcionários. O link deve ficar em negrito conforme estiver na página selecionada.</t>
-  </si>
-  <si>
-    <t>O Protótipo do Menu de navegação na vertical deve conter um conjunto de links e icones: Icone de usuário com frase "Bem Vindo", logo abaixo Perfil, Dashboard, Armazém, Funcionários e Botão Sair. O link deve ficar em negrito conforme estiver na página selecionada.</t>
-  </si>
-  <si>
-    <t>A tela Dashboard deve conter gráfico em linhas com variações da umidade e do horário de cada armazem, e um gráfico em pizza apresentando a quantidade de alertas em vermelho, laranja e amarelo.  Desenvolvimento da Tela da Dashboard em HTML e CSS</t>
-  </si>
-  <si>
-    <t>Icone de (+) que redireciona para a tela de cadastro de  funcionário dependendo da tela que estiver.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +544,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -821,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -891,8 +806,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,26 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1859,34 +1763,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="B5:I79" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="B5:I79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela7" displayName="Tabela7" ref="B5:I69" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="B5:I69" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="2" name="REQUISITOS" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="4" name="DESCRIÇÃO" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="5" name="CLASSIFICAÇÃO" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="6" name="TAMANHO" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="7" name="TAMANHO (FIBONACCI)" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="8" name="PRIORIDADE" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="9" name="SPRINT" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="REQUISITOS" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DESCRIÇÃO" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CLASSIFICAÇÃO" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TAMANHO" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="TAMANHO (FIBONACCI)" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PRIORIDADE" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="SPRINT" dataDxfId="12" totalsRowDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela711" displayName="Tabela711" ref="B5:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="B5:I13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela711" displayName="Tabela711" ref="B5:I8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B5:I8" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" name="REQUISITOS" dataDxfId="6"/>
-    <tableColumn id="4" name="DESCRIÇÃO" dataDxfId="5"/>
-    <tableColumn id="5" name="CLASSIFICAÇÃO" dataDxfId="4"/>
-    <tableColumn id="6" name="TAMANHO" dataDxfId="3"/>
-    <tableColumn id="7" name="TAMANHO (FIBONACCI)" dataDxfId="2"/>
-    <tableColumn id="8" name="PRIORIDADE" dataDxfId="1"/>
-    <tableColumn id="9" name="SPRINT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="REQUISITOS" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DESCRIÇÃO" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="CLASSIFICAÇÃO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TAMANHO" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="TAMANHO (FIBONACCI)" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="PRIORIDADE" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="SPRINT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2188,61 +2092,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:L79"/>
+  <dimension ref="A2:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="A12" sqref="A10:J12"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="71.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:12" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
@@ -2268,7 +2172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>9</v>
       </c>
@@ -2294,7 +2198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="8" t="s">
         <v>9</v>
@@ -2321,7 +2225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -2347,18 +2251,18 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="115.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -2376,15 +2280,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -2399,21 +2303,21 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -2431,15 +2335,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -2454,44 +2358,44 @@
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -2509,18 +2413,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
@@ -2529,105 +2433,105 @@
         <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="2">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2">
         <v>8</v>
@@ -2636,24 +2540,24 @@
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G20" s="2">
         <v>8</v>
@@ -2662,24 +2566,24 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2">
         <v>8</v>
@@ -2688,96 +2592,96 @@
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G22" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="28">
+        <v>8</v>
+      </c>
+      <c r="H23" s="28">
+        <v>1</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="23">
+        <v>3</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>12</v>
@@ -2792,18 +2696,18 @@
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
@@ -2818,122 +2722,125 @@
         <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G28" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="24" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>3</v>
       </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
@@ -2948,21 +2855,18 @@
         <v>1</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
@@ -2977,18 +2881,18 @@
         <v>1</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
@@ -3003,24 +2907,24 @@
         <v>1</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G34" s="2">
         <v>3</v>
@@ -3029,18 +2933,18 @@
         <v>1</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
@@ -3055,50 +2959,50 @@
         <v>1</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="2">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="2">
-        <v>3</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
@@ -3107,18 +3011,18 @@
         <v>1</v>
       </c>
       <c r="I37" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
@@ -3130,47 +3034,47 @@
         <v>3</v>
       </c>
       <c r="H38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G39" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
@@ -3185,76 +3089,76 @@
         <v>1</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" s="19" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="2">
+        <v>13</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="2">
-        <v>3</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G42" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G43" s="2">
         <v>3</v>
@@ -3263,24 +3167,24 @@
         <v>1</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
@@ -3289,18 +3193,18 @@
         <v>1</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" s="19" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -3315,18 +3219,18 @@
         <v>1</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
@@ -3341,24 +3245,24 @@
         <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="G47" s="2">
         <v>3</v>
@@ -3366,71 +3270,71 @@
       <c r="H47" s="2">
         <v>1</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>12</v>
+        <v>91</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G48" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H48" s="2">
         <v>2</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G49" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
@@ -3445,44 +3349,44 @@
         <v>1</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G51" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
@@ -3496,97 +3400,97 @@
       <c r="H52" s="2">
         <v>1</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="G53" s="2">
         <v>3</v>
       </c>
       <c r="H53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G55" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
@@ -3601,203 +3505,203 @@
         <v>1</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>172</v>
+        <v>107</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G57" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H58" s="2">
         <v>2</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>126</v>
+        <v>112</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G59" s="2">
+        <v>5</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="2">
         <v>8</v>
       </c>
-      <c r="H59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="2">
-        <v>3</v>
-      </c>
       <c r="H60" s="2">
         <v>1</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H61" s="2">
         <v>2</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>68</v>
+      <c r="I61" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G62" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="5">
+        <v>8</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="2">
-        <v>3</v>
-      </c>
-      <c r="H63" s="2">
-        <v>2</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>20</v>
@@ -3806,402 +3710,148 @@
         <v>5</v>
       </c>
       <c r="H64" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="2">
+        <v>5</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G65" s="2">
-        <v>8</v>
-      </c>
-      <c r="H65" s="2">
-        <v>2</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H66" s="2">
         <v>1</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G67" s="2">
         <v>8</v>
       </c>
       <c r="H67" s="2">
-        <v>2</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G68" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H68" s="2">
-        <v>2</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="2">
-        <v>5</v>
-      </c>
-      <c r="H69" s="2">
-        <v>1</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" s="10">
         <v>8</v>
       </c>
-      <c r="H70" s="2">
-        <v>1</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="2">
-        <v>5</v>
-      </c>
-      <c r="H71" s="2">
-        <v>2</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G72" s="2">
-        <v>8</v>
-      </c>
-      <c r="H72" s="2">
-        <v>2</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G73" s="5">
-        <v>8</v>
-      </c>
-      <c r="H73" s="2">
-        <v>1</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="2">
-        <v>5</v>
-      </c>
-      <c r="H74" s="2">
-        <v>3</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="2">
-        <v>5</v>
-      </c>
-      <c r="H75" s="2">
-        <v>1</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="2">
-        <v>5</v>
-      </c>
-      <c r="H76" s="2">
-        <v>1</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G77" s="2">
-        <v>8</v>
-      </c>
-      <c r="H77" s="2">
-        <v>1</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G78" s="2">
-        <v>8</v>
-      </c>
-      <c r="H78" s="2">
-        <v>1</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="10">
-        <v>8</v>
-      </c>
-      <c r="H79" s="10">
-        <v>1</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
+      <c r="H69" s="10">
+        <v>1</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:9" ht="64.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:9" ht="58.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I4"/>
@@ -4216,61 +3866,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:J34"/>
+  <dimension ref="A2:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="71.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
@@ -4296,767 +3946,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="2">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="2">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="35" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="39">
-        <v>8</v>
-      </c>
-      <c r="H14" s="39">
-        <v>1</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="2">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="23">
-        <v>5</v>
-      </c>
-      <c r="H16" s="23">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="2">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="23">
-        <v>5</v>
-      </c>
-      <c r="H18" s="23">
-        <v>2</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" s="41"/>
-    </row>
-    <row r="19" spans="2:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="2">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="42">
-        <v>8</v>
-      </c>
-      <c r="H20" s="23">
-        <v>1</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="23">
-        <v>5</v>
-      </c>
-      <c r="H22" s="23">
-        <v>1</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="23">
-        <v>8</v>
-      </c>
-      <c r="H24" s="23">
-        <v>1</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="2">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="23">
-        <v>5</v>
-      </c>
-      <c r="H26" s="23">
-        <v>2</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="23">
-        <v>3</v>
-      </c>
-      <c r="H28" s="23">
-        <v>1</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="2">
-        <v>3</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="23">
-        <v>8</v>
-      </c>
-      <c r="H30" s="23">
-        <v>1</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="2">
-        <v>8</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="23">
-        <v>5</v>
-      </c>
-      <c r="H32" s="23">
-        <v>1</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2">
-        <v>5</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="23">
-        <v>5</v>
-      </c>
-      <c r="H34" s="23">
-        <v>1</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
